--- a/target/test-classes/testData/TestData.xlsx
+++ b/target/test-classes/testData/TestData.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duttas/src/EShopTestSuite/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.friel\GitHub\Full Stack Test Automation\Week_10\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E658F-F92A-0D4B-96F3-C54F1234730C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D8CC0E-3A80-46E4-8FBA-FD3882E67EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20420" windowHeight="11820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="3825" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEV" sheetId="1" r:id="rId1"/>
-    <sheet name="INT" sheetId="2" r:id="rId2"/>
-    <sheet name="PREPROD" sheetId="3" r:id="rId3"/>
-    <sheet name="PROD" sheetId="4" r:id="rId4"/>
+    <sheet name="LoginPage" sheetId="5" r:id="rId1"/>
+    <sheet name="DEV" sheetId="1" r:id="rId2"/>
+    <sheet name="INT" sheetId="2" r:id="rId3"/>
+    <sheet name="PREPROD" sheetId="3" r:id="rId4"/>
+    <sheet name="PROD" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Test Name</t>
   </si>
@@ -92,6 +93,30 @@
   </si>
   <si>
     <t>Iteration</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>WebDriver</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>124@un</t>
+  </si>
+  <si>
+    <t>789@un</t>
+  </si>
+  <si>
+    <t>456@un</t>
+  </si>
+  <si>
+    <t>999@un</t>
   </si>
 </sst>
 </file>
@@ -510,29 +535,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DE50C-C949-4175-B01C-DFFB3E282157}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9E9CC3FC-517A-4CE7-A035-DB188A48E967}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5EC88CEB-85B4-4B14-B3A7-ACCB79E50D3F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E1C100A7-BCD4-48DD-BBF0-4EBE83917E48}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D294D403-8363-4DE1-B2AB-8D37541A05CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -590,7 +681,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -613,7 +704,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -636,7 +727,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -659,7 +750,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -695,39 +786,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640F19E9-DA90-7340-80BB-4B2E842E2512}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
